--- a/data/SE03_Chl_WQ.xlsx
+++ b/data/SE03_Chl_WQ.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>TOTAL SUSPENDED SOLIDS</t>
+  </si>
+  <si>
+    <t>TURBIDITY</t>
+  </si>
+  <si>
+    <t>VOLATILE SUSPENDED SOLIDS</t>
   </si>
 </sst>
 </file>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O379"/>
+  <dimension ref="A1:S379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P357" sqref="P357:S357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +605,7 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +651,17 @@
       <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>33158</v>
       </c>
@@ -687,8 +705,17 @@
       <c r="O2" s="6">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="S2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>33175</v>
       </c>
@@ -732,8 +759,17 @@
       <c r="O3" s="6">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>33190</v>
       </c>
@@ -777,8 +813,17 @@
       <c r="O4" s="6">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="3">
+        <v>19</v>
+      </c>
+      <c r="R4" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="S4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>33204</v>
       </c>
@@ -822,8 +867,17 @@
       <c r="O5" s="6">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="3">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>33217</v>
       </c>
@@ -867,8 +921,17 @@
       <c r="O6" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3">
+        <v>48</v>
+      </c>
+      <c r="R6" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>33233</v>
       </c>
@@ -912,8 +975,17 @@
       <c r="O7" s="6">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="3">
+        <v>40</v>
+      </c>
+      <c r="R7" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="S7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>33246</v>
       </c>
@@ -957,8 +1029,17 @@
       <c r="O8" s="6">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3">
+        <v>41</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="S8" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>33261</v>
       </c>
@@ -1002,8 +1083,17 @@
       <c r="O9" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3">
+        <v>6</v>
+      </c>
+      <c r="R9" s="3">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>33275</v>
       </c>
@@ -1047,8 +1137,17 @@
       <c r="O10" s="6">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3">
+        <v>9</v>
+      </c>
+      <c r="R10" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="S10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>33289</v>
       </c>
@@ -1092,8 +1191,17 @@
       <c r="O11" s="6">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3">
+        <v>18</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>33304</v>
       </c>
@@ -1137,8 +1245,17 @@
       <c r="O12" s="6">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3">
+        <v>30</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>33322</v>
       </c>
@@ -1182,8 +1299,17 @@
       <c r="O13" s="6">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3">
+        <v>26</v>
+      </c>
+      <c r="R13" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="S13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>33335</v>
       </c>
@@ -1227,8 +1353,17 @@
       <c r="O14" s="6">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3">
+        <v>36</v>
+      </c>
+      <c r="R14" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>33352</v>
       </c>
@@ -1272,8 +1407,17 @@
       <c r="O15" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>33365</v>
       </c>
@@ -1317,8 +1461,17 @@
       <c r="O16" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="3">
+        <v>16</v>
+      </c>
+      <c r="R16" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>33394</v>
       </c>
@@ -1362,8 +1515,17 @@
       <c r="O17" s="6">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>33408</v>
       </c>
@@ -1407,8 +1569,17 @@
       <c r="O18" s="6">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="3">
+        <v>13</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="S18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>33436</v>
       </c>
@@ -1452,8 +1623,17 @@
       <c r="O19" s="6">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="3">
+        <v>7</v>
+      </c>
+      <c r="R19" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>33450</v>
       </c>
@@ -1497,8 +1677,17 @@
       <c r="O20" s="6">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="3">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>33464</v>
       </c>
@@ -1542,8 +1731,17 @@
       <c r="O21" s="6">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="3">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="S21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>33484</v>
       </c>
@@ -1587,8 +1785,17 @@
       <c r="O22" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3">
+        <v>22</v>
+      </c>
+      <c r="R22" s="3">
+        <v>6</v>
+      </c>
+      <c r="S22" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>33497</v>
       </c>
@@ -1632,8 +1839,17 @@
       <c r="O23" s="6">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="3">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>33512</v>
       </c>
@@ -1671,8 +1887,17 @@
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="3">
+        <v>2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>33528</v>
       </c>
@@ -1716,8 +1941,17 @@
       <c r="O25" s="6">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="3">
+        <v>5</v>
+      </c>
+      <c r="R25" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>33542</v>
       </c>
@@ -1761,8 +1995,17 @@
       <c r="O26" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="3">
+        <v>19</v>
+      </c>
+      <c r="R26" s="3">
+        <v>7</v>
+      </c>
+      <c r="S26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>33555</v>
       </c>
@@ -1806,8 +2049,17 @@
       <c r="O27" s="6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="3">
+        <v>11</v>
+      </c>
+      <c r="R27" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>33569</v>
       </c>
@@ -1851,8 +2103,17 @@
       <c r="O28" s="6">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3">
+        <v>15</v>
+      </c>
+      <c r="R28" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="S28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>33588</v>
       </c>
@@ -1896,8 +2157,17 @@
       <c r="O29" s="6">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="3">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="S29" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>33602</v>
       </c>
@@ -1941,8 +2211,17 @@
       <c r="O30" s="6">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="3">
+        <v>12</v>
+      </c>
+      <c r="R30" s="3">
+        <v>4</v>
+      </c>
+      <c r="S30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>33616</v>
       </c>
@@ -1986,8 +2265,17 @@
       <c r="O31" s="6">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="3">
+        <v>21</v>
+      </c>
+      <c r="R31" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S31" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>33630</v>
       </c>
@@ -2031,8 +2319,17 @@
       <c r="O32" s="6">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="3">
+        <v>25</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S32" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>33645</v>
       </c>
@@ -2076,8 +2373,17 @@
       <c r="O33" s="6">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="3">
+        <v>12</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="S33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33659</v>
       </c>
@@ -2121,8 +2427,17 @@
       <c r="O34" s="6">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="3">
+        <v>10</v>
+      </c>
+      <c r="R34" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33674</v>
       </c>
@@ -2166,8 +2481,17 @@
       <c r="O35" s="6">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="3">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33689</v>
       </c>
@@ -2211,8 +2535,17 @@
       <c r="O36" s="6">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="3">
+        <v>11</v>
+      </c>
+      <c r="R36" s="3">
+        <v>5</v>
+      </c>
+      <c r="S36" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33717</v>
       </c>
@@ -2256,8 +2589,17 @@
       <c r="O37" s="6">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="3">
+        <v>9</v>
+      </c>
+      <c r="R37" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33731</v>
       </c>
@@ -2301,8 +2643,15 @@
       <c r="O38" s="6">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="3">
+        <v>23</v>
+      </c>
+      <c r="R38" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>33745</v>
       </c>
@@ -2346,8 +2695,17 @@
       <c r="O39" s="6">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="3">
+        <v>21</v>
+      </c>
+      <c r="R39" s="3">
+        <v>10</v>
+      </c>
+      <c r="S39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>33763</v>
       </c>
@@ -2391,8 +2749,17 @@
       <c r="O40" s="6">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="3">
+        <v>18</v>
+      </c>
+      <c r="R40" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="S40" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>33777</v>
       </c>
@@ -2436,8 +2803,17 @@
       <c r="O41" s="6">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="3">
+        <v>10</v>
+      </c>
+      <c r="R41" s="3">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>33806</v>
       </c>
@@ -2481,8 +2857,17 @@
       <c r="O42" s="6">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="3">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S42" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>33819</v>
       </c>
@@ -2526,8 +2911,17 @@
       <c r="O43" s="6">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="3">
+        <v>11</v>
+      </c>
+      <c r="R43" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>33835</v>
       </c>
@@ -2571,8 +2965,17 @@
       <c r="O44" s="6">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="3">
+        <v>10</v>
+      </c>
+      <c r="R44" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>33868</v>
       </c>
@@ -2616,8 +3019,17 @@
       <c r="O45" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="3">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="S45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>33882</v>
       </c>
@@ -2663,8 +3075,17 @@
       <c r="O46" s="6">
         <v>25.96</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="3">
+        <v>13</v>
+      </c>
+      <c r="R46" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="S46" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>33896</v>
       </c>
@@ -2710,8 +3131,17 @@
       <c r="O47" s="6">
         <v>25.46</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="3">
+        <v>13</v>
+      </c>
+      <c r="R47" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S47" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>33910</v>
       </c>
@@ -2757,8 +3187,17 @@
       <c r="O48" s="6">
         <v>25.64</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48" s="3">
+        <v>45</v>
+      </c>
+      <c r="R48" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>33925</v>
       </c>
@@ -2804,8 +3243,17 @@
       <c r="O49" s="6">
         <v>21.45</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="3">
+        <v>10</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="S49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>33939</v>
       </c>
@@ -2851,8 +3299,17 @@
       <c r="O50" s="6">
         <v>20.22</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50" s="3">
+        <v>21</v>
+      </c>
+      <c r="R50" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S50" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>34001</v>
       </c>
@@ -2896,8 +3353,17 @@
       <c r="O51" s="6">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="3">
+        <v>5</v>
+      </c>
+      <c r="R51" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>34011</v>
       </c>
@@ -2941,8 +3407,17 @@
       <c r="O52" s="6">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="3">
+        <v>15</v>
+      </c>
+      <c r="R52" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="S52" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>34029</v>
       </c>
@@ -2986,8 +3461,17 @@
       <c r="O53" s="3">
         <v>18.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53" s="3">
+        <v>12</v>
+      </c>
+      <c r="R53" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="S53" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>34043</v>
       </c>
@@ -3027,8 +3511,17 @@
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54" s="3">
+        <v>39</v>
+      </c>
+      <c r="R54" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="S54" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>34058</v>
       </c>
@@ -3074,8 +3567,17 @@
       <c r="O55" s="3">
         <v>23.43</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q55" s="3">
+        <v>6</v>
+      </c>
+      <c r="R55" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="S55" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>34071</v>
       </c>
@@ -3119,8 +3621,17 @@
       <c r="O56" s="3">
         <v>22.98</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56" s="3">
+        <v>12</v>
+      </c>
+      <c r="R56" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="S56" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>34101</v>
       </c>
@@ -3164,8 +3675,17 @@
       <c r="O57" s="3">
         <v>25.38</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57" s="3">
+        <v>26</v>
+      </c>
+      <c r="R57" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S57" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>34115</v>
       </c>
@@ -3211,8 +3731,17 @@
       <c r="O58" s="3">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58" s="3">
+        <v>32</v>
+      </c>
+      <c r="R58" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="S58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>34162</v>
       </c>
@@ -3258,8 +3787,17 @@
       <c r="O59" s="3">
         <v>31.78</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="3">
+        <v>10</v>
+      </c>
+      <c r="R59" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S59" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>34176</v>
       </c>
@@ -3305,8 +3843,17 @@
       <c r="O60" s="3">
         <v>30.65</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60" s="3">
+        <v>22</v>
+      </c>
+      <c r="R60" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="S60" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>34190</v>
       </c>
@@ -3352,8 +3899,17 @@
       <c r="O61" s="3">
         <v>30.01</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q61" s="3">
+        <v>27</v>
+      </c>
+      <c r="R61" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="S61" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>34204</v>
       </c>
@@ -3399,8 +3955,17 @@
       <c r="O62" s="3">
         <v>30.37</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62" s="3">
+        <v>37</v>
+      </c>
+      <c r="R62" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S62" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>34220</v>
       </c>
@@ -3446,8 +4011,17 @@
       <c r="O63" s="6">
         <v>29.31</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63" s="3">
+        <v>12</v>
+      </c>
+      <c r="R63" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="S63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>34295</v>
       </c>
@@ -3493,8 +4067,17 @@
       <c r="O64" s="6">
         <v>24.33</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64" s="3">
+        <v>24</v>
+      </c>
+      <c r="R64" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="S64" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>34339</v>
       </c>
@@ -3540,8 +4123,17 @@
       <c r="O65" s="6">
         <v>17.53</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q65" s="3">
+        <v>21</v>
+      </c>
+      <c r="R65" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="S65" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>34354</v>
       </c>
@@ -3587,8 +4179,17 @@
       <c r="O66" s="6">
         <v>16.82</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q66" s="3">
+        <v>19</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="S66" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>34382</v>
       </c>
@@ -3634,8 +4235,17 @@
       <c r="O67" s="6">
         <v>21.32</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q67" s="3">
+        <v>5</v>
+      </c>
+      <c r="R67" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="S67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>34411</v>
       </c>
@@ -3681,8 +4291,17 @@
       <c r="O68" s="6">
         <v>21.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q68" s="3">
+        <v>17</v>
+      </c>
+      <c r="R68" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="S68" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>34428</v>
       </c>
@@ -3720,8 +4339,17 @@
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q69" s="3">
+        <v>11</v>
+      </c>
+      <c r="R69" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="S69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>34442</v>
       </c>
@@ -3767,8 +4395,17 @@
       <c r="O70" s="6">
         <v>27.45</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q70" s="3">
+        <v>15</v>
+      </c>
+      <c r="R70" s="3">
+        <v>4</v>
+      </c>
+      <c r="S70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>34470</v>
       </c>
@@ -3814,8 +4451,17 @@
       <c r="O71" s="6">
         <v>28.61</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q71" s="3">
+        <v>6</v>
+      </c>
+      <c r="R71" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="S71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>34485</v>
       </c>
@@ -3861,8 +4507,17 @@
       <c r="O72" s="6">
         <v>27.98</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q72" s="3">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="S72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>34500</v>
       </c>
@@ -3908,8 +4563,17 @@
       <c r="O73" s="6">
         <v>30.26</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73" s="3">
+        <v>8</v>
+      </c>
+      <c r="R73" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>34514</v>
       </c>
@@ -3955,8 +4619,17 @@
       <c r="O74" s="6">
         <v>29.91</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q74" s="3">
+        <v>8</v>
+      </c>
+      <c r="R74" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="S74" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>34543</v>
       </c>
@@ -4002,8 +4675,17 @@
       <c r="O75" s="6">
         <v>29.59</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q75" s="3">
+        <v>9</v>
+      </c>
+      <c r="R75" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="S75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>34557</v>
       </c>
@@ -4047,8 +4729,17 @@
       <c r="O76" s="6">
         <v>29.22</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q76" s="3">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="S76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>34572</v>
       </c>
@@ -4094,8 +4785,17 @@
       <c r="O77" s="6">
         <v>28.58</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q77" s="3">
+        <v>4</v>
+      </c>
+      <c r="R77" s="3">
+        <v>5</v>
+      </c>
+      <c r="S77" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>34589</v>
       </c>
@@ -4141,8 +4841,17 @@
       <c r="O78" s="6">
         <v>28.88</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q78" s="3">
+        <v>9</v>
+      </c>
+      <c r="R78" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="S78" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>34617</v>
       </c>
@@ -4188,8 +4897,17 @@
       <c r="O79" s="6">
         <v>27.72</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q79" s="3">
+        <v>3</v>
+      </c>
+      <c r="R79" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>34633</v>
       </c>
@@ -4235,8 +4953,17 @@
       <c r="O80" s="6">
         <v>26.71</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q80" s="3">
+        <v>5</v>
+      </c>
+      <c r="R80" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>34647</v>
       </c>
@@ -4282,8 +5009,17 @@
       <c r="O81" s="6">
         <v>25.08</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q81" s="3">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="S81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>34666</v>
       </c>
@@ -4329,8 +5065,17 @@
       <c r="O82" s="6">
         <v>23.18</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q82" s="3">
+        <v>6</v>
+      </c>
+      <c r="R82" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="S82" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>34676</v>
       </c>
@@ -4376,8 +5121,17 @@
       <c r="O83" s="6">
         <v>24.46</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q83" s="3">
+        <v>6</v>
+      </c>
+      <c r="R83" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="S83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>34695</v>
       </c>
@@ -4423,8 +5177,17 @@
       <c r="O84" s="6">
         <v>16.84</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q84" s="3">
+        <v>8</v>
+      </c>
+      <c r="R84" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S84" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>34708</v>
       </c>
@@ -4470,8 +5233,17 @@
       <c r="O85" s="6">
         <v>18.43</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q85" s="3">
+        <v>16</v>
+      </c>
+      <c r="R85" s="3">
+        <v>22</v>
+      </c>
+      <c r="S85" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>34722</v>
       </c>
@@ -4517,8 +5289,17 @@
       <c r="O86" s="6">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q86" s="3">
+        <v>15</v>
+      </c>
+      <c r="R86" s="3">
+        <v>21</v>
+      </c>
+      <c r="S86" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>34736</v>
       </c>
@@ -4560,8 +5341,17 @@
       <c r="O87" s="6">
         <v>15.59</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q87" s="3">
+        <v>21</v>
+      </c>
+      <c r="R87" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="S87" s="3">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>34751</v>
       </c>
@@ -4607,8 +5397,17 @@
       <c r="O88" s="6">
         <v>21.93</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q88" s="3">
+        <v>23</v>
+      </c>
+      <c r="R88" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="S88" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>34780</v>
       </c>
@@ -4654,8 +5453,17 @@
       <c r="O89" s="6">
         <v>22.22</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q89" s="3">
+        <v>14</v>
+      </c>
+      <c r="R89" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S89" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>34809</v>
       </c>
@@ -4701,8 +5509,17 @@
       <c r="O90" s="6">
         <v>26.67</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q90" s="3">
+        <v>10</v>
+      </c>
+      <c r="R90" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="S90" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>34823</v>
       </c>
@@ -4748,8 +5565,17 @@
       <c r="O91" s="6">
         <v>27.99</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q91" s="3">
+        <v>9</v>
+      </c>
+      <c r="R91" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>34837</v>
       </c>
@@ -4795,8 +5621,17 @@
       <c r="O92" s="6">
         <v>29.91</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q92" s="3">
+        <v>10</v>
+      </c>
+      <c r="R92" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S92" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>34855</v>
       </c>
@@ -4842,8 +5677,17 @@
       <c r="O93" s="6">
         <v>28.31</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93" s="3">
+        <v>16</v>
+      </c>
+      <c r="R93" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S93" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>34869</v>
       </c>
@@ -4889,8 +5733,17 @@
       <c r="O94" s="6">
         <v>27.36</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q94" s="3">
+        <v>12</v>
+      </c>
+      <c r="R94" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>34886</v>
       </c>
@@ -4936,8 +5789,17 @@
       <c r="O95" s="6">
         <v>32.31</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q95" s="3">
+        <v>14</v>
+      </c>
+      <c r="R95" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="S95" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>34899</v>
       </c>
@@ -4983,8 +5845,17 @@
       <c r="O96" s="6">
         <v>28.88</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q96" s="3">
+        <v>9</v>
+      </c>
+      <c r="R96" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="S96" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>34927</v>
       </c>
@@ -5030,8 +5901,17 @@
       <c r="O97" s="6">
         <v>30.58</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q97" s="3">
+        <v>9</v>
+      </c>
+      <c r="R97" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S97" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>34942</v>
       </c>
@@ -5077,8 +5957,17 @@
       <c r="O98" s="6">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q98" s="3">
+        <v>3</v>
+      </c>
+      <c r="R98" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>34956</v>
       </c>
@@ -5124,8 +6013,17 @@
       <c r="O99" s="6">
         <v>27.74</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q99" s="3">
+        <v>3</v>
+      </c>
+      <c r="R99" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="S99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>34988</v>
       </c>
@@ -5171,8 +6069,17 @@
       <c r="O100" s="6">
         <v>26.35</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q100" s="3">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
+        <v>5.13</v>
+      </c>
+      <c r="S100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>35002</v>
       </c>
@@ -5218,8 +6125,17 @@
       <c r="O101" s="6">
         <v>25.58</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q101" s="3">
+        <v>37</v>
+      </c>
+      <c r="R101" s="3">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="S101" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>35031</v>
       </c>
@@ -5265,8 +6181,17 @@
       <c r="O102" s="6">
         <v>19.91</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q102" s="3">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="S102" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>35046</v>
       </c>
@@ -5312,8 +6237,17 @@
       <c r="O103" s="6">
         <v>19.53</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q103" s="3">
+        <v>9</v>
+      </c>
+      <c r="R103" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="S103" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>35060</v>
       </c>
@@ -5359,8 +6293,17 @@
       <c r="O104" s="6">
         <v>13.08</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q104" s="3">
+        <v>10</v>
+      </c>
+      <c r="R104" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="S104" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>35093</v>
       </c>
@@ -5406,8 +6349,17 @@
       <c r="O105" s="6">
         <v>19.18</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q105" s="3">
+        <v>12</v>
+      </c>
+      <c r="R105" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="S105" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>35108</v>
       </c>
@@ -5453,8 +6405,17 @@
       <c r="O106" s="6">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q106" s="3">
+        <v>6</v>
+      </c>
+      <c r="R106" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>35122</v>
       </c>
@@ -5500,8 +6461,17 @@
       <c r="O107" s="6">
         <v>23.03</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q107" s="3">
+        <v>18</v>
+      </c>
+      <c r="R107" s="3">
+        <v>3.14</v>
+      </c>
+      <c r="S107" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>35137</v>
       </c>
@@ -5547,8 +6517,17 @@
       <c r="O108" s="6">
         <v>15.64</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q108" s="3">
+        <v>7</v>
+      </c>
+      <c r="R108" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="S108" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>35151</v>
       </c>
@@ -5594,8 +6573,17 @@
       <c r="O109" s="6">
         <v>21.61</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q109" s="3">
+        <v>12</v>
+      </c>
+      <c r="R109" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="S109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>35166</v>
       </c>
@@ -5641,8 +6629,17 @@
       <c r="O110" s="6">
         <v>21.32</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q110" s="3">
+        <v>10</v>
+      </c>
+      <c r="R110" s="3">
+        <v>6.24</v>
+      </c>
+      <c r="S110" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>35180</v>
       </c>
@@ -5688,8 +6685,17 @@
       <c r="O111" s="6">
         <v>25.74</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q111" s="3">
+        <v>14</v>
+      </c>
+      <c r="R111" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="S111" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>35194</v>
       </c>
@@ -5735,8 +6741,17 @@
       <c r="O112" s="6">
         <v>27.27</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q112" s="3">
+        <v>17</v>
+      </c>
+      <c r="R112" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="S112" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>35208</v>
       </c>
@@ -5782,8 +6797,17 @@
       <c r="O113" s="6">
         <v>27.37</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q113" s="3">
+        <v>7</v>
+      </c>
+      <c r="R113" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="S113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>35222</v>
       </c>
@@ -5829,8 +6853,17 @@
       <c r="O114" s="6">
         <v>27.68</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q114" s="3">
+        <v>14</v>
+      </c>
+      <c r="R114" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="S114" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>35236</v>
       </c>
@@ -5876,8 +6909,17 @@
       <c r="O115" s="6">
         <v>28.57</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q115" s="3">
+        <v>6</v>
+      </c>
+      <c r="R115" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="S115" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>35249</v>
       </c>
@@ -5923,8 +6965,17 @@
       <c r="O116" s="6">
         <v>29.82</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q116" s="3">
+        <v>13</v>
+      </c>
+      <c r="R116" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S116" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>35268</v>
       </c>
@@ -5970,8 +7021,17 @@
       <c r="O117" s="6">
         <v>30.58</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q117" s="3">
+        <v>11</v>
+      </c>
+      <c r="R117" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="S117" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>35282</v>
       </c>
@@ -6017,8 +7077,17 @@
       <c r="O118" s="6">
         <v>29.88</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q118" s="3">
+        <v>11</v>
+      </c>
+      <c r="R118" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="S118" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>35297</v>
       </c>
@@ -6064,8 +7133,17 @@
       <c r="O119" s="6">
         <v>29.17</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q119" s="3">
+        <v>19</v>
+      </c>
+      <c r="R119" s="3">
+        <v>7.17</v>
+      </c>
+      <c r="S119" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>35313</v>
       </c>
@@ -6111,8 +7189,17 @@
       <c r="O120" s="6">
         <v>30.17</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q120" s="3">
+        <v>21</v>
+      </c>
+      <c r="R120" s="3">
+        <v>5.16</v>
+      </c>
+      <c r="S120" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>35327</v>
       </c>
@@ -6158,8 +7245,17 @@
       <c r="O121" s="6">
         <v>29.99</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q121" s="3">
+        <v>15</v>
+      </c>
+      <c r="R121" s="3">
+        <v>5.03</v>
+      </c>
+      <c r="S121" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>35340</v>
       </c>
@@ -6205,8 +7301,17 @@
       <c r="O122" s="6">
         <v>27.69</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q122" s="3">
+        <v>38</v>
+      </c>
+      <c r="R122" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="S122" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>35390</v>
       </c>
@@ -6252,8 +7357,17 @@
       <c r="O123" s="6">
         <v>21.77</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q123" s="3">
+        <v>8</v>
+      </c>
+      <c r="R123" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="S123" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>35415</v>
       </c>
@@ -6297,8 +7411,17 @@
       <c r="O124" s="6">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q124" s="3">
+        <v>19</v>
+      </c>
+      <c r="R124" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="S124" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>35446</v>
       </c>
@@ -6342,8 +7465,17 @@
       <c r="O125" s="6">
         <v>19.420000000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q125" s="3">
+        <v>6</v>
+      </c>
+      <c r="R125" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="S125" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>35474</v>
       </c>
@@ -6387,8 +7519,17 @@
       <c r="O126" s="6">
         <v>21.39</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q126" s="3">
+        <v>68</v>
+      </c>
+      <c r="R126" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="S126" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>35492</v>
       </c>
@@ -6428,8 +7569,17 @@
       <c r="O127" s="6">
         <v>24.78</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q127" s="3">
+        <v>19</v>
+      </c>
+      <c r="R127" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="S127" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>35521</v>
       </c>
@@ -6473,8 +7623,17 @@
       <c r="O128" s="6">
         <v>24.24</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q128" s="3">
+        <v>19</v>
+      </c>
+      <c r="R128" s="3">
+        <v>9.81</v>
+      </c>
+      <c r="S128" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>35562</v>
       </c>
@@ -6520,8 +7679,17 @@
       <c r="O129" s="6">
         <v>26.47</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q129" s="3">
+        <v>11</v>
+      </c>
+      <c r="R129" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="S129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>35592</v>
       </c>
@@ -6565,8 +7733,17 @@
       <c r="O130" s="6">
         <v>27.76</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q130" s="3">
+        <v>19</v>
+      </c>
+      <c r="R130" s="3">
+        <v>8.34</v>
+      </c>
+      <c r="S130" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>35620</v>
       </c>
@@ -6612,8 +7789,17 @@
       <c r="O131" s="6">
         <v>30.95</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q131" s="3">
+        <v>6</v>
+      </c>
+      <c r="R131" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="S131" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>35653</v>
       </c>
@@ -6657,8 +7843,17 @@
       <c r="O132" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q132" s="3">
+        <v>3</v>
+      </c>
+      <c r="R132" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="S132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>35682</v>
       </c>
@@ -6702,8 +7897,17 @@
       <c r="O133" s="6">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q133" s="3">
+        <v>9</v>
+      </c>
+      <c r="R133" s="3">
+        <v>3.77</v>
+      </c>
+      <c r="S133" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>35712</v>
       </c>
@@ -6749,8 +7953,17 @@
       <c r="O134" s="6">
         <v>26.66</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q134" s="3">
+        <v>24</v>
+      </c>
+      <c r="R134" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="S134" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>35740</v>
       </c>
@@ -6796,8 +8009,17 @@
       <c r="O135" s="6">
         <v>22.78</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q135" s="3">
+        <v>14</v>
+      </c>
+      <c r="R135" s="3">
+        <v>7.92</v>
+      </c>
+      <c r="S135" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>35786</v>
       </c>
@@ -6841,8 +8063,17 @@
       <c r="O136" s="6">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q136" s="3">
+        <v>7</v>
+      </c>
+      <c r="R136" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="S136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>35816</v>
       </c>
@@ -6886,8 +8117,17 @@
       <c r="O137" s="6">
         <v>19.82</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q137" s="3">
+        <v>18</v>
+      </c>
+      <c r="R137" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="S137" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>35844</v>
       </c>
@@ -6931,8 +8171,17 @@
       <c r="O138" s="6">
         <v>20.149999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q138" s="3">
+        <v>13</v>
+      </c>
+      <c r="R138" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="S138" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>35873</v>
       </c>
@@ -6978,8 +8227,17 @@
       <c r="O139" s="6">
         <v>19.34</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q139" s="3">
+        <v>53</v>
+      </c>
+      <c r="R139" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="S139" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>35901</v>
       </c>
@@ -7023,8 +8281,17 @@
       <c r="O140" s="6">
         <v>22.47</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q140" s="3">
+        <v>33</v>
+      </c>
+      <c r="R140" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="S140" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>35934</v>
       </c>
@@ -7068,8 +8335,17 @@
       <c r="O141" s="6">
         <v>27.32</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q141" s="3">
+        <v>38</v>
+      </c>
+      <c r="R141" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S141" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>35947</v>
       </c>
@@ -7113,8 +8389,17 @@
       <c r="O142" s="6">
         <v>28.96</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q142" s="3">
+        <v>19</v>
+      </c>
+      <c r="R142" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="S142" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>35961</v>
       </c>
@@ -7158,8 +8443,17 @@
       <c r="O143" s="6">
         <v>30.53</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q143" s="3">
+        <v>16</v>
+      </c>
+      <c r="R143" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="S143" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>35975</v>
       </c>
@@ -7203,8 +8497,17 @@
       <c r="O144" s="6">
         <v>30.97</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q144" s="3">
+        <v>42</v>
+      </c>
+      <c r="R144" s="3">
+        <v>6.67</v>
+      </c>
+      <c r="S144" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>35991</v>
       </c>
@@ -7248,8 +8551,17 @@
       <c r="O145" s="6">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q145" s="3">
+        <v>24</v>
+      </c>
+      <c r="R145" s="3">
+        <v>5.04</v>
+      </c>
+      <c r="S145" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>36020</v>
       </c>
@@ -7293,8 +8605,17 @@
       <c r="O146" s="6">
         <v>31.52</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q146" s="3">
+        <v>16</v>
+      </c>
+      <c r="R146" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="S146" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>36048</v>
       </c>
@@ -7338,8 +8659,17 @@
       <c r="O147" s="6">
         <v>29.55</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q147" s="3">
+        <v>4</v>
+      </c>
+      <c r="R147" s="3">
+        <v>4</v>
+      </c>
+      <c r="S147" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>36094</v>
       </c>
@@ -7383,8 +8713,17 @@
       <c r="O148" s="6">
         <v>24.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q148" s="3">
+        <v>14</v>
+      </c>
+      <c r="R148" s="3">
+        <v>9.49</v>
+      </c>
+      <c r="S148" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>36108</v>
       </c>
@@ -7428,8 +8767,17 @@
       <c r="O149" s="6">
         <v>22.21</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q149" s="3">
+        <v>9</v>
+      </c>
+      <c r="R149" s="3">
+        <v>8.82</v>
+      </c>
+      <c r="S149" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>36138</v>
       </c>
@@ -7473,8 +8821,17 @@
       <c r="O150" s="6">
         <v>24.59</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q150" s="3">
+        <v>14</v>
+      </c>
+      <c r="R150" s="3">
+        <v>5.15</v>
+      </c>
+      <c r="S150" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>36181</v>
       </c>
@@ -7516,8 +8873,17 @@
       <c r="O151" s="6">
         <v>22.71</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q151" s="3">
+        <v>18</v>
+      </c>
+      <c r="R151" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="S151" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>36213</v>
       </c>
@@ -7561,8 +8927,17 @@
       <c r="O152" s="6">
         <v>19.43</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q152" s="3">
+        <v>7</v>
+      </c>
+      <c r="R152" s="3">
+        <v>3.54</v>
+      </c>
+      <c r="S152" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>36227</v>
       </c>
@@ -7606,8 +8981,17 @@
       <c r="O153" s="6">
         <v>20.18</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q153" s="3">
+        <v>47</v>
+      </c>
+      <c r="R153" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="S153" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>36255</v>
       </c>
@@ -7651,8 +9035,17 @@
       <c r="O154" s="6">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q154" s="3">
+        <v>9</v>
+      </c>
+      <c r="R154" s="3">
+        <v>6.53</v>
+      </c>
+      <c r="S154" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>36272</v>
       </c>
@@ -7696,8 +9089,17 @@
       <c r="O155" s="6">
         <v>24.56</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q155" s="3">
+        <v>20</v>
+      </c>
+      <c r="R155" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="S155" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>36279</v>
       </c>
@@ -7741,8 +9143,17 @@
       <c r="O156" s="6">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q156" s="3">
+        <v>16</v>
+      </c>
+      <c r="R156" s="3">
+        <v>7.37</v>
+      </c>
+      <c r="S156" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>36285</v>
       </c>
@@ -7786,8 +9197,17 @@
       <c r="O157" s="6">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q157" s="3">
+        <v>15</v>
+      </c>
+      <c r="R157" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S157" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>36313</v>
       </c>
@@ -7829,8 +9249,17 @@
       <c r="O158" s="6">
         <v>26.95</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q158" s="3">
+        <v>16</v>
+      </c>
+      <c r="R158" s="3">
+        <v>3.96</v>
+      </c>
+      <c r="S158" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>36360</v>
       </c>
@@ -7874,8 +9303,17 @@
       <c r="O159" s="6">
         <v>30.43</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q159" s="3">
+        <v>8</v>
+      </c>
+      <c r="R159" s="3">
+        <v>4.76</v>
+      </c>
+      <c r="S159" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>36390</v>
       </c>
@@ -7919,8 +9357,17 @@
       <c r="O160" s="6">
         <v>30.24</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q160" s="3">
+        <v>14</v>
+      </c>
+      <c r="R160" s="3">
+        <v>5.97</v>
+      </c>
+      <c r="S160" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>36432</v>
       </c>
@@ -7964,8 +9411,17 @@
       <c r="O161" s="6">
         <v>27.83</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q161" s="3">
+        <v>8</v>
+      </c>
+      <c r="R161" s="3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="S161" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>36451</v>
       </c>
@@ -8009,8 +9465,17 @@
       <c r="O162" s="6">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q162" s="3">
+        <v>9</v>
+      </c>
+      <c r="R162" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="S162" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>36493</v>
       </c>
@@ -8042,8 +9507,17 @@
       <c r="O163" s="6">
         <v>22.54</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q163" s="3">
+        <v>22</v>
+      </c>
+      <c r="R163" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S163" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>36509</v>
       </c>
@@ -8087,8 +9561,17 @@
       <c r="O164" s="6">
         <v>22.06</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q164" s="3">
+        <v>16</v>
+      </c>
+      <c r="R164" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="S164" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>36538</v>
       </c>
@@ -8132,8 +9615,17 @@
       <c r="O165" s="6">
         <v>22.03</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q165" s="3">
+        <v>14</v>
+      </c>
+      <c r="R165" s="3">
+        <v>6.08</v>
+      </c>
+      <c r="S165" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>36580</v>
       </c>
@@ -8177,8 +9669,17 @@
       <c r="O166" s="6">
         <v>20.52</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q166" s="3">
+        <v>41</v>
+      </c>
+      <c r="R166" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="S166" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>36608</v>
       </c>
@@ -8222,8 +9723,17 @@
       <c r="O167" s="6">
         <v>23.84</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q167" s="3">
+        <v>23</v>
+      </c>
+      <c r="R167" s="3">
+        <v>4.76</v>
+      </c>
+      <c r="S167" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>36626</v>
       </c>
@@ -8267,8 +9777,17 @@
       <c r="O168" s="6">
         <v>22.46</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q168" s="3">
+        <v>24</v>
+      </c>
+      <c r="R168" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="S168" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>36647</v>
       </c>
@@ -8312,8 +9831,17 @@
       <c r="O169" s="6">
         <v>24.83</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q169" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="R169" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="S169" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>36654</v>
       </c>
@@ -8357,8 +9885,17 @@
       <c r="O170" s="6">
         <v>25.08</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q170" s="3">
+        <v>25</v>
+      </c>
+      <c r="R170" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="S170" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>36671</v>
       </c>
@@ -8402,8 +9939,17 @@
       <c r="O171" s="6">
         <v>28.08</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q171" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="R171" s="3">
+        <v>6.09</v>
+      </c>
+      <c r="S171" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>36684</v>
       </c>
@@ -8447,8 +9993,17 @@
       <c r="O172" s="6">
         <v>29.14</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q172" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="R172" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="S172" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>36703</v>
       </c>
@@ -8492,8 +10047,17 @@
       <c r="O173" s="6">
         <v>28.93</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q173" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="R173" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="S173" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>36713</v>
       </c>
@@ -8537,8 +10101,17 @@
       <c r="O174" s="6">
         <v>29.82</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q174" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="R174" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="S174" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>36759</v>
       </c>
@@ -8582,8 +10155,17 @@
       <c r="O175" s="6">
         <v>30.96</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q175" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="R175" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="S175" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>36787</v>
       </c>
@@ -8627,8 +10209,17 @@
       <c r="O176" s="6">
         <v>28.13</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q176" s="3">
+        <v>10</v>
+      </c>
+      <c r="R176" s="3">
+        <v>5.81</v>
+      </c>
+      <c r="S176" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>36818</v>
       </c>
@@ -8672,8 +10263,17 @@
       <c r="O177" s="6">
         <v>24.61</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q177" s="3">
+        <v>6</v>
+      </c>
+      <c r="R177" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="S177" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>36832</v>
       </c>
@@ -8717,8 +10317,17 @@
       <c r="O178" s="6">
         <v>24.43</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q178" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="R178" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="S178" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>36864</v>
       </c>
@@ -8762,8 +10371,17 @@
       <c r="O179" s="6">
         <v>19.55</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q179" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R179" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="S179" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>36907</v>
       </c>
@@ -8807,8 +10425,17 @@
       <c r="O180" s="6">
         <v>18.07</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q180" s="3">
+        <v>4</v>
+      </c>
+      <c r="R180" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="S180" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>36936</v>
       </c>
@@ -8852,8 +10479,17 @@
       <c r="O181" s="6">
         <v>23.57</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q181" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="R181" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="S181" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>36951</v>
       </c>
@@ -8897,8 +10533,17 @@
       <c r="O182" s="6">
         <v>24.73</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q182" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="R182" s="3">
+        <v>8.81</v>
+      </c>
+      <c r="S182" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>37011</v>
       </c>
@@ -8942,8 +10587,17 @@
       <c r="O183" s="6">
         <v>21.82</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q183" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R183" s="3">
+        <v>6.97</v>
+      </c>
+      <c r="S183" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>37040</v>
       </c>
@@ -8987,8 +10641,17 @@
       <c r="O184" s="6">
         <v>27.08</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q184" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="R184" s="3">
+        <v>4.37</v>
+      </c>
+      <c r="S184" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>37053</v>
       </c>
@@ -9032,8 +10695,17 @@
       <c r="O185" s="6">
         <v>29.66</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q185" s="3">
+        <v>6</v>
+      </c>
+      <c r="R185" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="S185" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>37097</v>
       </c>
@@ -9077,8 +10749,17 @@
       <c r="O186" s="6">
         <v>27.29</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q186" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="R186" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="S186" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>37112</v>
       </c>
@@ -9122,8 +10803,17 @@
       <c r="O187" s="6">
         <v>29.11</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q187" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R187" s="3">
+        <v>9.06</v>
+      </c>
+      <c r="S187" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>37144</v>
       </c>
@@ -9167,8 +10857,17 @@
       <c r="O188" s="6">
         <v>27.92</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q188" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R188" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="S188" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>37187</v>
       </c>
@@ -9212,8 +10911,17 @@
       <c r="O189" s="6">
         <v>25.98</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q189" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="R189" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S189" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>37202</v>
       </c>
@@ -9257,8 +10965,17 @@
       <c r="O190" s="6">
         <v>21.88</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q190" s="3">
+        <v>4</v>
+      </c>
+      <c r="R190" s="3">
+        <v>6.46</v>
+      </c>
+      <c r="S190" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>37230</v>
       </c>
@@ -9302,8 +11019,17 @@
       <c r="O191" s="6">
         <v>23.21</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q191" s="3">
+        <v>7</v>
+      </c>
+      <c r="R191" s="3">
+        <v>5.19</v>
+      </c>
+      <c r="S191" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>37278</v>
       </c>
@@ -9347,8 +11073,17 @@
       <c r="O192" s="6">
         <v>22.48</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q192" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="R192" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="S192" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>37307</v>
       </c>
@@ -9392,8 +11127,17 @@
       <c r="O193" s="6">
         <v>19.41</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q193" s="3">
+        <v>6</v>
+      </c>
+      <c r="R193" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="S193" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>37335</v>
       </c>
@@ -9437,8 +11181,17 @@
       <c r="O194" s="6">
         <v>25.33</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q194" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="R194" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="S194" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>37364</v>
       </c>
@@ -9482,8 +11235,17 @@
       <c r="O195" s="6">
         <v>26.16</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q195" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="R195" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="S195" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>37378</v>
       </c>
@@ -9527,8 +11289,17 @@
       <c r="O196" s="6">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q196" s="3">
+        <v>6</v>
+      </c>
+      <c r="R196" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="S196" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>37420</v>
       </c>
@@ -9572,8 +11343,17 @@
       <c r="O197" s="6">
         <v>23.28</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q197" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="R197" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="S197" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>37452</v>
       </c>
@@ -9617,8 +11397,17 @@
       <c r="O198" s="6">
         <v>28.99</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q198" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R198" s="3">
+        <v>11</v>
+      </c>
+      <c r="S198" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>37482</v>
       </c>
@@ -9662,8 +11451,17 @@
       <c r="O199" s="6">
         <v>29.15</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q199" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="R199" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S199" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>37525</v>
       </c>
@@ -9707,8 +11505,17 @@
       <c r="O200" s="6">
         <v>28.88</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q200" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="R200" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="S200" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>37557</v>
       </c>
@@ -9752,8 +11559,17 @@
       <c r="O201" s="6">
         <v>28.59</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q201" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="R201" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="S201" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>37572</v>
       </c>
@@ -9797,8 +11613,17 @@
       <c r="O202" s="6">
         <v>25.36</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q202" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="R202" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="S202" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>37602</v>
       </c>
@@ -9842,8 +11667,17 @@
       <c r="O203" s="6">
         <v>21.63</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q203" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R203" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="S203" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>37644</v>
       </c>
@@ -9887,8 +11721,17 @@
       <c r="O204" s="6">
         <v>15.96</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q204" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="R204" s="3">
+        <v>7.32</v>
+      </c>
+      <c r="S204" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>37676</v>
       </c>
@@ -9932,8 +11775,17 @@
       <c r="O205" s="6">
         <v>21.99</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q205" s="3">
+        <v>5</v>
+      </c>
+      <c r="R205" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S205" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>37704</v>
       </c>
@@ -9977,8 +11829,17 @@
       <c r="O206" s="6">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q206" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R206" s="3">
+        <v>6.85</v>
+      </c>
+      <c r="S206" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>37732</v>
       </c>
@@ -10022,8 +11883,17 @@
       <c r="O207" s="6">
         <v>25.63</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q207" s="3">
+        <v>7</v>
+      </c>
+      <c r="R207" s="3">
+        <v>5.08</v>
+      </c>
+      <c r="S207" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>37761</v>
       </c>
@@ -10067,8 +11937,17 @@
       <c r="O208" s="6">
         <v>28.77</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q208" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="R208" s="3">
+        <v>7.18</v>
+      </c>
+      <c r="S208" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>37790</v>
       </c>
@@ -10100,8 +11979,17 @@
       <c r="O209" s="6">
         <v>29.62</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q209" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="R209" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="S209" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>37818</v>
       </c>
@@ -10145,8 +12033,17 @@
       <c r="O210" s="6">
         <v>29.51</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q210" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="R210" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="S210" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>37850</v>
       </c>
@@ -10190,8 +12087,17 @@
       <c r="O211" s="6">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q211" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="R211" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="S211" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>37881</v>
       </c>
@@ -10223,8 +12129,17 @@
       <c r="O212" s="6">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q212" s="3">
+        <v>43</v>
+      </c>
+      <c r="R212" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="S212" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>37895</v>
       </c>
@@ -10268,8 +12183,17 @@
       <c r="O213" s="6">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q213" s="3">
+        <v>6</v>
+      </c>
+      <c r="R213" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="S213" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>37942</v>
       </c>
@@ -10313,8 +12237,17 @@
       <c r="O214" s="6">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q214" s="3">
+        <v>5</v>
+      </c>
+      <c r="R214" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="S214" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>37970</v>
       </c>
@@ -10358,8 +12291,17 @@
       <c r="O215" s="6">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q215" s="3">
+        <v>8</v>
+      </c>
+      <c r="R215" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="S215" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>38355</v>
       </c>
@@ -10403,8 +12345,17 @@
       <c r="O216" s="6">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q216" s="3">
+        <v>13</v>
+      </c>
+      <c r="R216" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S216" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>38383</v>
       </c>
@@ -10448,8 +12399,17 @@
       <c r="O217" s="6">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q217" s="3">
+        <v>3</v>
+      </c>
+      <c r="R217" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="S217" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>38426</v>
       </c>
@@ -10493,8 +12453,17 @@
       <c r="O218" s="6">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q218" s="3">
+        <v>7</v>
+      </c>
+      <c r="R218" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="S218" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>38470</v>
       </c>
@@ -10538,8 +12507,17 @@
       <c r="O219" s="6">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q219" s="3">
+        <v>11</v>
+      </c>
+      <c r="R219" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="S219" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>38484</v>
       </c>
@@ -10583,8 +12561,17 @@
       <c r="O220" s="6">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q220" s="3">
+        <v>8</v>
+      </c>
+      <c r="R220" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="S220" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>38516</v>
       </c>
@@ -10628,8 +12615,17 @@
       <c r="O221" s="6">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q221" s="3">
+        <v>14</v>
+      </c>
+      <c r="R221" s="3">
+        <v>17</v>
+      </c>
+      <c r="S221" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>38533</v>
       </c>
@@ -10673,8 +12669,17 @@
       <c r="O222" s="6">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q222" s="3">
+        <v>7</v>
+      </c>
+      <c r="R222" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="S222" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>38558</v>
       </c>
@@ -10718,8 +12723,17 @@
       <c r="O223" s="6">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q223" s="3">
+        <v>48</v>
+      </c>
+      <c r="R223" s="3">
+        <v>45</v>
+      </c>
+      <c r="S223" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>38587</v>
       </c>
@@ -10763,8 +12777,17 @@
       <c r="O224" s="6">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q224" s="3">
+        <v>13</v>
+      </c>
+      <c r="R224" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="S224" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>38617</v>
       </c>
@@ -10808,8 +12831,17 @@
       <c r="O225" s="6">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q225" s="3">
+        <v>14</v>
+      </c>
+      <c r="R225" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="S225" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>38645</v>
       </c>
@@ -10847,8 +12879,17 @@
         <v>10060</v>
       </c>
       <c r="O226" s="7"/>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q226" s="3">
+        <v>7</v>
+      </c>
+      <c r="R226" s="3">
+        <v>6</v>
+      </c>
+      <c r="S226" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>38659</v>
       </c>
@@ -10880,8 +12921,15 @@
       <c r="O227" s="6">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q227" s="3">
+        <v>25</v>
+      </c>
+      <c r="R227" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="S227" s="4"/>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>38665</v>
       </c>
@@ -10913,8 +12961,15 @@
       <c r="O228" s="6">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q228" s="3">
+        <v>20</v>
+      </c>
+      <c r="R228" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="S228" s="4"/>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>38673</v>
       </c>
@@ -10946,8 +13001,15 @@
       <c r="O229" s="6">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q229" s="3">
+        <v>21</v>
+      </c>
+      <c r="R229" s="3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="S229" s="4"/>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>38678</v>
       </c>
@@ -10993,8 +13055,17 @@
       <c r="O230" s="6">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q230" s="3">
+        <v>11</v>
+      </c>
+      <c r="R230" s="3">
+        <v>10</v>
+      </c>
+      <c r="S230" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>38685</v>
       </c>
@@ -11026,8 +13097,15 @@
       <c r="O231" s="6">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q231" s="3">
+        <v>15</v>
+      </c>
+      <c r="R231" s="3">
+        <v>21</v>
+      </c>
+      <c r="S231" s="4"/>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>38693</v>
       </c>
@@ -11059,8 +13137,15 @@
       <c r="O232" s="6">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q232" s="3">
+        <v>48</v>
+      </c>
+      <c r="R232" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="S232" s="4"/>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>38706</v>
       </c>
@@ -11098,8 +13183,17 @@
         <v>10030</v>
       </c>
       <c r="O233" s="7"/>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q233" s="3">
+        <v>16</v>
+      </c>
+      <c r="R233" s="3">
+        <v>32</v>
+      </c>
+      <c r="S233" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>38721</v>
       </c>
@@ -11121,8 +13215,15 @@
       <c r="M234" s="7"/>
       <c r="N234" s="7"/>
       <c r="O234" s="7"/>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q234" s="3">
+        <v>16</v>
+      </c>
+      <c r="R234" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="S234" s="4"/>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>38736</v>
       </c>
@@ -11168,8 +13269,17 @@
       <c r="O235" s="6">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q235" s="3">
+        <v>11</v>
+      </c>
+      <c r="R235" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="S235" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>38748</v>
       </c>
@@ -11201,8 +13311,15 @@
       <c r="O236" s="6">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q236" s="3">
+        <v>11</v>
+      </c>
+      <c r="R236" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="S236" s="4"/>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>38768</v>
       </c>
@@ -11246,8 +13363,17 @@
       <c r="O237" s="6">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q237" s="3">
+        <v>15</v>
+      </c>
+      <c r="R237" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="S237" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>38797</v>
       </c>
@@ -11285,8 +13411,17 @@
         <v>16780</v>
       </c>
       <c r="O238" s="7"/>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q238" s="3">
+        <v>10</v>
+      </c>
+      <c r="R238" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="S238" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>38825</v>
       </c>
@@ -11330,8 +13465,17 @@
       <c r="O239" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q239" s="3">
+        <v>9</v>
+      </c>
+      <c r="R239" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="S239" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>38852</v>
       </c>
@@ -11375,8 +13519,17 @@
       <c r="O240" s="6">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q240" s="3">
+        <v>11</v>
+      </c>
+      <c r="R240" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="S240" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>38883</v>
       </c>
@@ -11420,8 +13573,17 @@
       <c r="O241" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q241" s="3">
+        <v>23</v>
+      </c>
+      <c r="R241" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="S241" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>38911</v>
       </c>
@@ -11465,8 +13627,17 @@
       <c r="O242" s="6">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q242" s="3">
+        <v>17</v>
+      </c>
+      <c r="R242" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="S242" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>38917</v>
       </c>
@@ -11492,8 +13663,11 @@
       <c r="O243" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q243" s="4"/>
+      <c r="R243" s="4"/>
+      <c r="S243" s="4"/>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>38929</v>
       </c>
@@ -11519,8 +13693,11 @@
       <c r="O244" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q244" s="4"/>
+      <c r="R244" s="4"/>
+      <c r="S244" s="4"/>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>38943</v>
       </c>
@@ -11564,8 +13741,17 @@
       <c r="O245" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q245" s="3">
+        <v>10</v>
+      </c>
+      <c r="R245" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="S245" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>38961</v>
       </c>
@@ -11591,8 +13777,11 @@
       <c r="O246" s="6">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q246" s="4"/>
+      <c r="R246" s="4"/>
+      <c r="S246" s="4"/>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>38971</v>
       </c>
@@ -11636,8 +13825,17 @@
       <c r="O247" s="6">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q247" s="3">
+        <v>14</v>
+      </c>
+      <c r="R247" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="S247" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>38988</v>
       </c>
@@ -11663,8 +13861,11 @@
       <c r="O248" s="6">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q248" s="4"/>
+      <c r="R248" s="4"/>
+      <c r="S248" s="4"/>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>38999</v>
       </c>
@@ -11710,8 +13911,17 @@
       <c r="O249" s="6">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q249" s="3">
+        <v>18</v>
+      </c>
+      <c r="R249" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="S249" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>39014</v>
       </c>
@@ -11731,8 +13941,11 @@
       <c r="M250" s="7"/>
       <c r="N250" s="7"/>
       <c r="O250" s="7"/>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q250" s="4"/>
+      <c r="R250" s="4"/>
+      <c r="S250" s="4"/>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>39034</v>
       </c>
@@ -11778,8 +13991,17 @@
       <c r="O251" s="6">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q251" s="3">
+        <v>8</v>
+      </c>
+      <c r="R251" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="S251" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>39062</v>
       </c>
@@ -11825,8 +14047,17 @@
       <c r="O252" s="6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q252" s="3">
+        <v>13</v>
+      </c>
+      <c r="R252" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S252" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>39112</v>
       </c>
@@ -11872,8 +14103,17 @@
       <c r="O253" s="6">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q253" s="3">
+        <v>12</v>
+      </c>
+      <c r="R253" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="S253" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>39139</v>
       </c>
@@ -11919,8 +14159,17 @@
       <c r="O254" s="6">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q254" s="3">
+        <v>9</v>
+      </c>
+      <c r="R254" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="S254" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>39160</v>
       </c>
@@ -11966,8 +14215,17 @@
       <c r="O255" s="6">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q255" s="3">
+        <v>24</v>
+      </c>
+      <c r="R255" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="S255" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>39189</v>
       </c>
@@ -12013,8 +14271,17 @@
       <c r="O256" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q256" s="3">
+        <v>7</v>
+      </c>
+      <c r="R256" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="S256" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>39217</v>
       </c>
@@ -12060,8 +14327,17 @@
       <c r="O257" s="6">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q257" s="3">
+        <v>36</v>
+      </c>
+      <c r="R257" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="S257" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>39259</v>
       </c>
@@ -12107,8 +14383,17 @@
       <c r="O258" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q258" s="3">
+        <v>24</v>
+      </c>
+      <c r="R258" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="S258" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>39287</v>
       </c>
@@ -12154,8 +14439,17 @@
       <c r="O259" s="6">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q259" s="3">
+        <v>11</v>
+      </c>
+      <c r="R259" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="S259" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>39308</v>
       </c>
@@ -12201,8 +14495,17 @@
       <c r="O260" s="6">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q260" s="3">
+        <v>8</v>
+      </c>
+      <c r="R260" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="S260" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>39343</v>
       </c>
@@ -12248,8 +14551,17 @@
       <c r="O261" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q261" s="3">
+        <v>8</v>
+      </c>
+      <c r="R261" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="S261" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>39363</v>
       </c>
@@ -12295,8 +14607,17 @@
       <c r="O262" s="6">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q262" s="3">
+        <v>19</v>
+      </c>
+      <c r="R262" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="S262" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>39398</v>
       </c>
@@ -12342,8 +14663,17 @@
       <c r="O263" s="6">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q263" s="3">
+        <v>6</v>
+      </c>
+      <c r="R263" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S263" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>39427</v>
       </c>
@@ -12389,8 +14719,17 @@
       <c r="O264" s="6">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q264" s="3">
+        <v>8</v>
+      </c>
+      <c r="R264" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="S264" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>39462</v>
       </c>
@@ -12436,8 +14775,17 @@
       <c r="O265" s="6">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q265" s="3">
+        <v>6</v>
+      </c>
+      <c r="R265" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S265" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>39490</v>
       </c>
@@ -12483,8 +14831,17 @@
       <c r="O266" s="6">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q266" s="3">
+        <v>12</v>
+      </c>
+      <c r="R266" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="S266" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>39518</v>
       </c>
@@ -12530,8 +14887,17 @@
       <c r="O267" s="6">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q267" s="3">
+        <v>4</v>
+      </c>
+      <c r="R267" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="S267" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>39562</v>
       </c>
@@ -12577,8 +14943,17 @@
       <c r="O268" s="6">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q268" s="3">
+        <v>22</v>
+      </c>
+      <c r="R268" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S268" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>39575</v>
       </c>
@@ -12624,8 +14999,17 @@
       <c r="O269" s="6">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q269" s="3">
+        <v>26</v>
+      </c>
+      <c r="R269" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="S269" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>39602</v>
       </c>
@@ -12671,8 +15055,17 @@
       <c r="O270" s="6">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q270" s="3">
+        <v>11</v>
+      </c>
+      <c r="R270" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="S270" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>39650</v>
       </c>
@@ -12718,8 +15111,17 @@
       <c r="O271" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q271" s="3">
+        <v>9</v>
+      </c>
+      <c r="R271" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="S271" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>39681</v>
       </c>
@@ -12765,8 +15167,17 @@
       <c r="O272" s="6">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q272" s="3">
+        <v>29</v>
+      </c>
+      <c r="R272" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="S272" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>39699</v>
       </c>
@@ -12798,8 +15209,15 @@
       <c r="O273" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q273" s="3">
+        <v>10</v>
+      </c>
+      <c r="R273" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S273" s="4"/>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>39713</v>
       </c>
@@ -12845,8 +15263,17 @@
       <c r="O274" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q274" s="3">
+        <v>9</v>
+      </c>
+      <c r="R274" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="S274" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>39728</v>
       </c>
@@ -12878,8 +15305,15 @@
       <c r="O275" s="6">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q275" s="3">
+        <v>3</v>
+      </c>
+      <c r="R275" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="S275" s="4"/>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>39741</v>
       </c>
@@ -12925,8 +15359,17 @@
       <c r="O276" s="6">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q276" s="3">
+        <v>4</v>
+      </c>
+      <c r="R276" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="S276" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>39769</v>
       </c>
@@ -12972,8 +15415,17 @@
       <c r="O277" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q277" s="3">
+        <v>15</v>
+      </c>
+      <c r="R277" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S277" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>39797</v>
       </c>
@@ -13019,8 +15471,17 @@
       <c r="O278" s="6">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q278" s="3">
+        <v>12</v>
+      </c>
+      <c r="R278" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="S278" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>39825</v>
       </c>
@@ -13066,8 +15527,17 @@
       <c r="O279" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q279" s="3">
+        <v>25</v>
+      </c>
+      <c r="R279" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="S279" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>39853</v>
       </c>
@@ -13113,8 +15583,17 @@
       <c r="O280" s="6">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q280" s="3">
+        <v>12</v>
+      </c>
+      <c r="R280" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="S280" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>39882</v>
       </c>
@@ -13160,8 +15639,17 @@
       <c r="O281" s="6">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q281" s="3">
+        <v>14</v>
+      </c>
+      <c r="R281" s="3">
+        <v>6</v>
+      </c>
+      <c r="S281" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>39916</v>
       </c>
@@ -13207,8 +15695,17 @@
       <c r="O282" s="6">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q282" s="3">
+        <v>4</v>
+      </c>
+      <c r="R282" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S282" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>39945</v>
       </c>
@@ -13254,8 +15751,17 @@
       <c r="O283" s="6">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q283" s="3">
+        <v>6</v>
+      </c>
+      <c r="R283" s="3">
+        <v>3</v>
+      </c>
+      <c r="S283" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>39973</v>
       </c>
@@ -13301,8 +15807,17 @@
       <c r="O284" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q284" s="3">
+        <v>5</v>
+      </c>
+      <c r="R284" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="S284" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>40001</v>
       </c>
@@ -13348,8 +15863,17 @@
       <c r="O285" s="6">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q285" s="3">
+        <v>12</v>
+      </c>
+      <c r="R285" s="3">
+        <v>3</v>
+      </c>
+      <c r="S285" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>40036</v>
       </c>
@@ -13395,8 +15919,17 @@
       <c r="O286" s="6">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q286" s="3">
+        <v>13</v>
+      </c>
+      <c r="R286" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="S286" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>40065</v>
       </c>
@@ -13442,8 +15975,17 @@
       <c r="O287" s="6">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q287" s="3">
+        <v>3</v>
+      </c>
+      <c r="R287" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S287" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>40092</v>
       </c>
@@ -13489,8 +16031,17 @@
       <c r="O288" s="6">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q288" s="3">
+        <v>6</v>
+      </c>
+      <c r="R288" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="S288" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>40120</v>
       </c>
@@ -13536,8 +16087,17 @@
       <c r="O289" s="6">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q289" s="3">
+        <v>16</v>
+      </c>
+      <c r="R289" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="S289" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>40149</v>
       </c>
@@ -13583,8 +16143,17 @@
       <c r="O290" s="6">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q290" s="3">
+        <v>26</v>
+      </c>
+      <c r="R290" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="S290" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>40182</v>
       </c>
@@ -13630,8 +16199,17 @@
       <c r="O291" s="6">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q291" s="3">
+        <v>18</v>
+      </c>
+      <c r="R291" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="S291" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>40213</v>
       </c>
@@ -13677,8 +16255,17 @@
       <c r="O292" s="6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q292" s="3">
+        <v>3</v>
+      </c>
+      <c r="R292" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S292" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>40241</v>
       </c>
@@ -13724,8 +16311,17 @@
       <c r="O293" s="6">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q293" s="3">
+        <v>3</v>
+      </c>
+      <c r="R293" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="S293" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>40282</v>
       </c>
@@ -13771,8 +16367,17 @@
       <c r="O294" s="6">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q294" s="3">
+        <v>13</v>
+      </c>
+      <c r="R294" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="S294" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>40301</v>
       </c>
@@ -13818,8 +16423,17 @@
       <c r="O295" s="6">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q295" s="3">
+        <v>20</v>
+      </c>
+      <c r="R295" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="S295" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>40331</v>
       </c>
@@ -13865,8 +16479,17 @@
       <c r="O296" s="6">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q296" s="3">
+        <v>7</v>
+      </c>
+      <c r="R296" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S296" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>40372</v>
       </c>
@@ -13912,8 +16535,17 @@
       <c r="O297" s="6">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q297" s="3">
+        <v>5</v>
+      </c>
+      <c r="R297" s="3">
+        <v>5</v>
+      </c>
+      <c r="S297" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>40393</v>
       </c>
@@ -13959,8 +16591,17 @@
       <c r="O298" s="6">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q298" s="3">
+        <v>4</v>
+      </c>
+      <c r="R298" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="S298" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>40423</v>
       </c>
@@ -14006,8 +16647,17 @@
       <c r="O299" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q299" s="3">
+        <v>3</v>
+      </c>
+      <c r="R299" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S299" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>40465</v>
       </c>
@@ -14053,8 +16703,17 @@
       <c r="O300" s="6">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q300" s="3">
+        <v>6</v>
+      </c>
+      <c r="R300" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="S300" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>40492</v>
       </c>
@@ -14100,8 +16759,17 @@
       <c r="O301" s="6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q301" s="3">
+        <v>3</v>
+      </c>
+      <c r="R301" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S301" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>40520</v>
       </c>
@@ -14147,8 +16815,17 @@
       <c r="O302" s="6">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q302" s="3">
+        <v>5</v>
+      </c>
+      <c r="R302" s="3">
+        <v>3</v>
+      </c>
+      <c r="S302" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>40562</v>
       </c>
@@ -14194,8 +16871,17 @@
       <c r="O303" s="6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q303" s="3">
+        <v>4</v>
+      </c>
+      <c r="R303" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="S303" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>40589</v>
       </c>
@@ -14241,8 +16927,17 @@
       <c r="O304" s="6">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q304" s="3">
+        <v>8</v>
+      </c>
+      <c r="R304" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="S304" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>40623</v>
       </c>
@@ -14288,8 +16983,17 @@
       <c r="O305" s="6">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q305" s="3">
+        <v>21</v>
+      </c>
+      <c r="R305" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="S305" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>40639</v>
       </c>
@@ -14335,8 +17039,17 @@
       <c r="O306" s="6">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q306" s="3">
+        <v>12</v>
+      </c>
+      <c r="R306" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="S306" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>40667</v>
       </c>
@@ -14382,8 +17095,17 @@
       <c r="O307" s="3">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q307">
+        <v>9</v>
+      </c>
+      <c r="R307">
+        <v>5.9</v>
+      </c>
+      <c r="S307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>40701</v>
       </c>
@@ -14429,8 +17151,17 @@
       <c r="O308" s="3">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q308">
+        <v>15</v>
+      </c>
+      <c r="R308">
+        <v>6.4</v>
+      </c>
+      <c r="S308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>40743</v>
       </c>
@@ -14476,8 +17207,17 @@
       <c r="O309" s="3">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q309">
+        <v>9</v>
+      </c>
+      <c r="R309">
+        <v>5.6</v>
+      </c>
+      <c r="S309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>40757</v>
       </c>
@@ -14523,8 +17263,17 @@
       <c r="O310" s="3">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q310">
+        <v>12</v>
+      </c>
+      <c r="R310">
+        <v>7.4</v>
+      </c>
+      <c r="S310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>40805</v>
       </c>
@@ -14570,8 +17319,17 @@
       <c r="O311" s="3">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q311">
+        <v>4</v>
+      </c>
+      <c r="R311">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>40833</v>
       </c>
@@ -14617,8 +17375,17 @@
       <c r="O312" s="3">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q312">
+        <v>5</v>
+      </c>
+      <c r="R312">
+        <v>7</v>
+      </c>
+      <c r="S312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>40836</v>
       </c>
@@ -14664,8 +17431,17 @@
       <c r="O313" s="3">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q313">
+        <v>11</v>
+      </c>
+      <c r="R313">
+        <v>9.1</v>
+      </c>
+      <c r="S313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>40864</v>
       </c>
@@ -14711,8 +17487,17 @@
       <c r="O314" s="3">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q314">
+        <v>3</v>
+      </c>
+      <c r="R314">
+        <v>4</v>
+      </c>
+      <c r="S314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>40890</v>
       </c>
@@ -14758,8 +17543,17 @@
       <c r="O315" s="3">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q315">
+        <v>5</v>
+      </c>
+      <c r="R315">
+        <v>4.3</v>
+      </c>
+      <c r="S315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>40933</v>
       </c>
@@ -14805,8 +17599,17 @@
       <c r="O316" s="3">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q316">
+        <v>3</v>
+      </c>
+      <c r="R316">
+        <v>2</v>
+      </c>
+      <c r="S316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>40952</v>
       </c>
@@ -14852,8 +17655,17 @@
       <c r="O317" s="3">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q317">
+        <v>4</v>
+      </c>
+      <c r="R317">
+        <v>3.4</v>
+      </c>
+      <c r="S317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>40980</v>
       </c>
@@ -14899,8 +17711,17 @@
       <c r="O318" s="3">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q318">
+        <v>5</v>
+      </c>
+      <c r="R318">
+        <v>3.1</v>
+      </c>
+      <c r="S318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>41024</v>
       </c>
@@ -14946,8 +17767,17 @@
       <c r="O319" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q319">
+        <v>5</v>
+      </c>
+      <c r="R319">
+        <v>4.3</v>
+      </c>
+      <c r="S319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>41038</v>
       </c>
@@ -14993,8 +17823,17 @@
       <c r="O320" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q320">
+        <v>9</v>
+      </c>
+      <c r="R320">
+        <v>5.4</v>
+      </c>
+      <c r="S320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>41085</v>
       </c>
@@ -15040,8 +17879,17 @@
       <c r="O321" s="3">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q321">
+        <v>8</v>
+      </c>
+      <c r="R321">
+        <v>4.8</v>
+      </c>
+      <c r="S321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>41114</v>
       </c>
@@ -15087,8 +17935,17 @@
       <c r="O322" s="3">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q322">
+        <v>6</v>
+      </c>
+      <c r="R322">
+        <v>5</v>
+      </c>
+      <c r="S322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>41128</v>
       </c>
@@ -15134,8 +17991,17 @@
       <c r="O323" s="3">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q323">
+        <v>11</v>
+      </c>
+      <c r="R323">
+        <v>5.9</v>
+      </c>
+      <c r="S323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>41158</v>
       </c>
@@ -15181,8 +18047,17 @@
       <c r="O324" s="3">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q324">
+        <v>14</v>
+      </c>
+      <c r="R324">
+        <v>11.3</v>
+      </c>
+      <c r="S324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>41186</v>
       </c>
@@ -15228,8 +18103,17 @@
       <c r="O325" s="3">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q325">
+        <v>16</v>
+      </c>
+      <c r="R325">
+        <v>13.2</v>
+      </c>
+      <c r="S325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>41218</v>
       </c>
@@ -15275,8 +18159,17 @@
       <c r="O326" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q326">
+        <v>6</v>
+      </c>
+      <c r="R326">
+        <v>7.2</v>
+      </c>
+      <c r="S326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>41247</v>
       </c>
@@ -15322,8 +18215,17 @@
       <c r="O327" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q327">
+        <v>6</v>
+      </c>
+      <c r="R327">
+        <v>3.4</v>
+      </c>
+      <c r="S327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>41277</v>
       </c>
@@ -15369,8 +18271,17 @@
       <c r="O328" s="3">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q328">
+        <v>5</v>
+      </c>
+      <c r="R328">
+        <v>3.6</v>
+      </c>
+      <c r="S328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>41331</v>
       </c>
@@ -15416,8 +18327,17 @@
       <c r="O329" s="3">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q329">
+        <v>4</v>
+      </c>
+      <c r="R329">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>41337</v>
       </c>
@@ -15463,8 +18383,17 @@
       <c r="O330" s="3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q330">
+        <v>5</v>
+      </c>
+      <c r="R330">
+        <v>3</v>
+      </c>
+      <c r="S330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>41365</v>
       </c>
@@ -15510,8 +18439,17 @@
       <c r="O331" s="3">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q331">
+        <v>5</v>
+      </c>
+      <c r="R331">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>41407</v>
       </c>
@@ -15557,8 +18495,17 @@
       <c r="O332" s="3">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q332">
+        <v>9</v>
+      </c>
+      <c r="R332">
+        <v>6.1</v>
+      </c>
+      <c r="S332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>41438</v>
       </c>
@@ -15604,8 +18551,17 @@
       <c r="O333" s="3">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q333">
+        <v>13</v>
+      </c>
+      <c r="R333">
+        <v>13.4</v>
+      </c>
+      <c r="S333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>41470</v>
       </c>
@@ -15651,8 +18607,17 @@
       <c r="O334" s="3">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q334">
+        <v>17</v>
+      </c>
+      <c r="R334">
+        <v>16.5</v>
+      </c>
+      <c r="S334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>41498</v>
       </c>
@@ -15698,8 +18663,17 @@
       <c r="O335" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q335">
+        <v>20</v>
+      </c>
+      <c r="R335">
+        <v>20.8</v>
+      </c>
+      <c r="S335">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>41526</v>
       </c>
@@ -15745,8 +18719,17 @@
       <c r="O336" s="3">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q336">
+        <v>7</v>
+      </c>
+      <c r="R336">
+        <v>9</v>
+      </c>
+      <c r="S336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>41557</v>
       </c>
@@ -15792,8 +18775,17 @@
       <c r="O337" s="3">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q337">
+        <v>6</v>
+      </c>
+      <c r="R337">
+        <v>5.6</v>
+      </c>
+      <c r="S337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>41585</v>
       </c>
@@ -15839,8 +18831,17 @@
       <c r="O338" s="3">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q338">
+        <v>5</v>
+      </c>
+      <c r="R338">
+        <v>3.6</v>
+      </c>
+      <c r="S338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>41613</v>
       </c>
@@ -15886,8 +18887,17 @@
       <c r="O339" s="3">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q339">
+        <v>4</v>
+      </c>
+      <c r="R339">
+        <v>3.5</v>
+      </c>
+      <c r="S339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>41645</v>
       </c>
@@ -15933,8 +18943,17 @@
       <c r="O340" s="3">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q340">
+        <v>4</v>
+      </c>
+      <c r="R340">
+        <v>3.4</v>
+      </c>
+      <c r="S340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>41673</v>
       </c>
@@ -15980,8 +18999,17 @@
       <c r="O341" s="3">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q341">
+        <v>4</v>
+      </c>
+      <c r="R341">
+        <v>3.8</v>
+      </c>
+      <c r="S341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>41702</v>
       </c>
@@ -16027,8 +19055,17 @@
       <c r="O342" s="3">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q342">
+        <v>6</v>
+      </c>
+      <c r="R342">
+        <v>4</v>
+      </c>
+      <c r="S342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>41732</v>
       </c>
@@ -16074,8 +19111,17 @@
       <c r="O343" s="3">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q343">
+        <v>10</v>
+      </c>
+      <c r="R343">
+        <v>3.9</v>
+      </c>
+      <c r="S343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>41774</v>
       </c>
@@ -16121,8 +19167,17 @@
       <c r="O344" s="3">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q344">
+        <v>12</v>
+      </c>
+      <c r="R344">
+        <v>5.8</v>
+      </c>
+      <c r="S344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>41792</v>
       </c>
@@ -16168,8 +19223,17 @@
       <c r="O345" s="3">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q345">
+        <v>27</v>
+      </c>
+      <c r="R345">
+        <v>12.7</v>
+      </c>
+      <c r="S345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>41837</v>
       </c>
@@ -16215,8 +19279,17 @@
       <c r="O346" s="3">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q346">
+        <v>11</v>
+      </c>
+      <c r="R346">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>41865</v>
       </c>
@@ -16262,8 +19335,17 @@
       <c r="O347" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q347">
+        <v>21</v>
+      </c>
+      <c r="R347">
+        <v>11.2</v>
+      </c>
+      <c r="S347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>41893</v>
       </c>
@@ -16309,8 +19391,17 @@
       <c r="O348" s="3">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q348">
+        <v>5</v>
+      </c>
+      <c r="R348">
+        <v>5</v>
+      </c>
+      <c r="S348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>41925</v>
       </c>
@@ -16356,8 +19447,17 @@
       <c r="O349" s="3">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q349">
+        <v>5</v>
+      </c>
+      <c r="R349">
+        <v>5.7</v>
+      </c>
+      <c r="S349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>41956</v>
       </c>
@@ -16403,8 +19503,17 @@
       <c r="O350" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q350">
+        <v>4</v>
+      </c>
+      <c r="R350">
+        <v>3.6</v>
+      </c>
+      <c r="S350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>41982</v>
       </c>
@@ -16450,8 +19559,17 @@
       <c r="O351" s="3">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q351">
+        <v>9</v>
+      </c>
+      <c r="R351">
+        <v>3.9</v>
+      </c>
+      <c r="S351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>42016</v>
       </c>
@@ -16497,8 +19615,17 @@
       <c r="O352" s="3">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q352">
+        <v>5</v>
+      </c>
+      <c r="R352">
+        <v>3.9</v>
+      </c>
+      <c r="S352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>42044</v>
       </c>
@@ -16544,8 +19671,17 @@
       <c r="O353" s="3">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q353">
+        <v>5</v>
+      </c>
+      <c r="R353">
+        <v>2.7</v>
+      </c>
+      <c r="S353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>42072</v>
       </c>
@@ -16591,8 +19727,17 @@
       <c r="O354" s="3">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q354">
+        <v>7</v>
+      </c>
+      <c r="R354">
+        <v>7</v>
+      </c>
+      <c r="S354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>42102</v>
       </c>
@@ -16638,8 +19783,17 @@
       <c r="O355" s="3">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q355">
+        <v>6</v>
+      </c>
+      <c r="R355">
+        <v>3.8</v>
+      </c>
+      <c r="S355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>42129</v>
       </c>
@@ -16685,8 +19839,17 @@
       <c r="O356" s="3">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q356">
+        <v>8</v>
+      </c>
+      <c r="R356">
+        <v>6</v>
+      </c>
+      <c r="S356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>42159</v>
       </c>
@@ -16732,8 +19895,17 @@
       <c r="O357" s="3">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q357">
+        <v>10</v>
+      </c>
+      <c r="R357">
+        <v>6.2</v>
+      </c>
+      <c r="S357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>42191</v>
       </c>
@@ -16779,8 +19951,17 @@
       <c r="O358" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q358">
+        <v>7</v>
+      </c>
+      <c r="R358">
+        <v>5.4</v>
+      </c>
+      <c r="S358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>42219</v>
       </c>
@@ -16826,8 +20007,17 @@
       <c r="O359" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q359">
+        <v>16</v>
+      </c>
+      <c r="R359">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S359">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>42248</v>
       </c>
@@ -16873,8 +20063,17 @@
       <c r="O360" s="3">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q360">
+        <v>11</v>
+      </c>
+      <c r="R360">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>42292</v>
       </c>
@@ -16920,8 +20119,17 @@
       <c r="O361" s="3">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q361">
+        <v>9</v>
+      </c>
+      <c r="R361">
+        <v>6.2</v>
+      </c>
+      <c r="S361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>42325</v>
       </c>
@@ -16967,8 +20175,17 @@
       <c r="O362" s="3">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q362">
+        <v>7</v>
+      </c>
+      <c r="R362">
+        <v>6.4</v>
+      </c>
+      <c r="S362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>42382</v>
       </c>
@@ -17014,8 +20231,17 @@
       <c r="O363" s="3">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q363">
+        <v>3</v>
+      </c>
+      <c r="R363">
+        <v>2.6</v>
+      </c>
+      <c r="S363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>42444</v>
       </c>
@@ -17061,8 +20287,17 @@
       <c r="O364" s="3">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q364">
+        <v>15</v>
+      </c>
+      <c r="R364">
+        <v>26</v>
+      </c>
+      <c r="S364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>42513</v>
       </c>
@@ -17108,8 +20343,17 @@
       <c r="O365" s="3">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q365">
+        <v>8</v>
+      </c>
+      <c r="R365">
+        <v>8.9</v>
+      </c>
+      <c r="S365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>42558</v>
       </c>
@@ -17155,8 +20399,17 @@
       <c r="O366" s="3">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q366">
+        <v>8</v>
+      </c>
+      <c r="R366">
+        <v>7.9</v>
+      </c>
+      <c r="S366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>42604</v>
       </c>
@@ -17202,8 +20455,17 @@
       <c r="O367" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q367">
+        <v>7</v>
+      </c>
+      <c r="R367">
+        <v>5.5</v>
+      </c>
+      <c r="S367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>42633</v>
       </c>
@@ -17249,8 +20511,17 @@
       <c r="O368" s="3">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q368">
+        <v>7</v>
+      </c>
+      <c r="R368">
+        <v>5.2</v>
+      </c>
+      <c r="S368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>42647</v>
       </c>
@@ -17296,8 +20567,17 @@
       <c r="O369" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q369">
+        <v>17</v>
+      </c>
+      <c r="R369">
+        <v>15</v>
+      </c>
+      <c r="S369">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>42677</v>
       </c>
@@ -17343,8 +20623,17 @@
       <c r="O370" s="3">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q370">
+        <v>7</v>
+      </c>
+      <c r="R370">
+        <v>10.4</v>
+      </c>
+      <c r="S370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>42709</v>
       </c>
@@ -17390,8 +20679,17 @@
       <c r="O371" s="3">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q371">
+        <v>3</v>
+      </c>
+      <c r="R371">
+        <v>2.5</v>
+      </c>
+      <c r="S371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>42739</v>
       </c>
@@ -17437,8 +20735,17 @@
       <c r="O372" s="3">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q372">
+        <v>7</v>
+      </c>
+      <c r="R372">
+        <v>3.3</v>
+      </c>
+      <c r="S372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>42767</v>
       </c>
@@ -17484,8 +20791,17 @@
       <c r="O373" s="3">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q373">
+        <v>11</v>
+      </c>
+      <c r="R373">
+        <v>3.8</v>
+      </c>
+      <c r="S373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>42809</v>
       </c>
@@ -17531,8 +20847,17 @@
       <c r="O374" s="3">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q374">
+        <v>8</v>
+      </c>
+      <c r="R374">
+        <v>3.8</v>
+      </c>
+      <c r="S374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>42838</v>
       </c>
@@ -17578,8 +20903,17 @@
       <c r="O375" s="3">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q375">
+        <v>8</v>
+      </c>
+      <c r="R375">
+        <v>6</v>
+      </c>
+      <c r="S375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>42870</v>
       </c>
@@ -17625,8 +20959,17 @@
       <c r="O376" s="3">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q376">
+        <v>12</v>
+      </c>
+      <c r="R376">
+        <v>7.4</v>
+      </c>
+      <c r="S376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>42900</v>
       </c>
@@ -17672,8 +21015,17 @@
       <c r="O377" s="3">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q377">
+        <v>6</v>
+      </c>
+      <c r="R377">
+        <v>4.7</v>
+      </c>
+      <c r="S377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>42927</v>
       </c>
@@ -17719,8 +21071,17 @@
       <c r="O378" s="3">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q378">
+        <v>11</v>
+      </c>
+      <c r="R378">
+        <v>3.5</v>
+      </c>
+      <c r="S378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>42957</v>
       </c>
@@ -17765,6 +21126,15 @@
       </c>
       <c r="O379" s="3">
         <v>30.7</v>
+      </c>
+      <c r="Q379">
+        <v>9</v>
+      </c>
+      <c r="R379">
+        <v>7.2</v>
+      </c>
+      <c r="S379">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
